--- a/qq.xlsx
+++ b/qq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-macos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE839DBF-51FD-4483-AE48-B9521D5C7D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996373A8-D795-4B31-9C69-DC7891131E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Version</t>
   </si>
@@ -66,25 +66,19 @@
   </si>
   <si>
     <t>https://pan.baidu.com/s/14Rsrh8RF7asBFWxYC9ZPiA?pwd=1234 </t>
+  </si>
+  <si>
+    <t>https://github.com/A-Randomm-User/macOS-save/releases/download/qq/QQ_6.9.85_251114_01.dmg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
@@ -123,20 +117,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,8 +464,8 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F2" sqref="F2"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,8 +474,9 @@
     <col min="2" max="2" width="11.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="61.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="58.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.77734375" style="2"/>
+    <col min="5" max="5" width="55.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="86" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.77734375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -506,7 +499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -522,12 +515,12 @@
       <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" tooltip="https://pan.baidu.com/s/14Rsrh8RF7asBFWxYC9ZPiA?pwd=1234" display="https://pan.baidu.com/s/14Rsrh8RF7asBFWxYC9ZPiA?pwd=1234" xr:uid="{7F6FC33D-4DB3-4590-84DF-B06AC6A2D958}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/qq.xlsx
+++ b/qq.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\myth1\OneDrive\Desktop\Project\Project-macos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996373A8-D795-4B31-9C69-DC7891131E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B07CE60-FFBF-4016-83C0-E19EEDD440BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,13 +62,13 @@
     <t>macOS Support</t>
   </si>
   <si>
-    <t>macOS High Serria</t>
-  </si>
-  <si>
     <t>https://pan.baidu.com/s/14Rsrh8RF7asBFWxYC9ZPiA?pwd=1234 </t>
   </si>
   <si>
     <t>https://github.com/A-Randomm-User/macOS-save/releases/download/qq/QQ_6.9.85_251114_01.dmg</t>
+  </si>
+  <si>
+    <t>macOS High Sierra</t>
   </si>
 </sst>
 </file>
@@ -120,13 +120,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,8 +463,8 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F10" sqref="F10"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,16 +506,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
